--- a/medicine/Pharmacie/Classe_ATC_D04/Classe_ATC_D04.xlsx
+++ b/medicine/Pharmacie/Classe_ATC_D04/Classe_ATC_D04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC D04, dénommée « Antiprurigineux, incluant antihistaminiques », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QD04[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique D de la classification, intitulé « Dermatologie ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC D04, dénommée « Antiprurigineux, incluant antihistaminiques », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QD04. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique D de la classification, intitulé « Dermatologie ».
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>D04AA Antihistaminiques à usage topique
-D04AA01 Thonzylamine (en)
+          <t>D04AA Antihistaminiques à usage topique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>D04AA01 Thonzylamine (en)
 D04AA02 Mépyramine (en)
 D04AA03 Thénalidine (en)
 D04AA04 Tripélennamine (en)
@@ -528,18 +545,86 @@
 D04AA22 Isothipendyl
 D04AA32 Diphénhydramine
 D04AA33 Méthylbromure de diphénhydramine
-D04AA34 Chlorphénoxamine (en)
-D04AB Anesthésiques à usage topique
-D04AB01 Lidocaïne
+D04AA34 Chlorphénoxamine (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D04</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>D04A Antiprurigineux, incluant antihistaminiques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>D04AB Anesthésiques à usage topique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>D04AB01 Lidocaïne
 D04AB02 Cinchocaïne (en)
 D04AB03 Oxybuprocaïne (en)
 D04AB04 Benzocaïne
 D04AB05 Quinisocaïne (en)
 D04AB06 Tétracaïne
 D04AB07 Pramocaïne (en)
-QD04AB51 Lidocaïne, associations
-D04AX Autres antiprurigineux
-D04AX01 Doxépine</t>
+QD04AB51 Lidocaïne, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D04</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>D04A Antiprurigineux, incluant antihistaminiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>D04AX Autres antiprurigineux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>D04AX01 Doxépine</t>
         </is>
       </c>
     </row>
